--- a/PFG_Fashionstore_IT_Problems_FAQ_DB.xlsx
+++ b/PFG_Fashionstore_IT_Problems_FAQ_DB.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\edv\IT_Operations\Applikation\AM ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dokumente\Chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100080_{5931265A-3D84-46DA-B865-C5AD4BF86042}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13980" xr2:uid="{D4996753-6D10-493F-8ACA-730F3F46D88D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Thiemann, Maik - Persönliche Ansicht" guid="{D497DE23-6865-46C0-90E9-38E50D4A0C6E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="840" activeSheetId="1"/>
+    <customWorkbookView name="Dippmann, Joanna - Persönliche Ansicht" guid="{BAF11A50-A0E5-408F-BA2C-244C18004201}" mergeInterval="0" personalView="1" xWindow="182" yWindow="41" windowWidth="1709" windowHeight="1159" activeSheetId="1"/>
     <customWorkbookView name="Huenerlage, Lars - Persönliche Ansicht" guid="{ACA718C0-8D78-4A51-9B60-C7FB5EB05292}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1216" activeSheetId="1"/>
-    <customWorkbookView name="Dippmann, Joanna - Persönliche Ansicht" guid="{BAF11A50-A0E5-408F-BA2C-244C18004201}" mergeInterval="0" personalView="1" xWindow="182" yWindow="41" windowWidth="1709" windowHeight="1159" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,18 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
-  <si>
-    <t>Hardware</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
   <si>
     <t>Über den Drucker / Fax in der Filiale kann nicht mehr gedruckt werden- Faxe können aber immer noch empfangen werden</t>
   </si>
   <si>
     <t>Der Treiber des Druckers/ Faxes muss neu installiert werden. Sobald dies geschehen ist, muss die Kasse neu gestartet werden.</t>
-  </si>
-  <si>
-    <t>Software</t>
   </si>
   <si>
     <t>Filiale kann ein Dokument nicht über das Infoportal ausdrucken</t>
@@ -128,18 +122,6 @@
   </si>
   <si>
     <t>MDE Gerät überträgt keine Inventur Daten</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Kategorie</t>
-  </si>
-  <si>
-    <t>Anfrage</t>
-  </si>
-  <si>
-    <t>Antwort</t>
   </si>
   <si>
     <t>Bitte prüfen Sie, ob die notwendigen Verbindungseinstellungen in Futura entsprechend gesetzt sind.</t>
@@ -261,12 +243,33 @@
   <si>
     <t>Bitte wählen Sie bei der Abfrage maximal ein Zeitfenster von 12 Monaten. Ein größeres Zeitfenster verursacht eine große Datenmenge und führt zum Absturz der Anwendung.  Bei größerem Zeitfenster prüfen Sie bitte die Prozessorlast der Java-Dienste. Liegt die Last bei 100 %, beenden Sie den Dienst und führen einen Funktionstest durch.</t>
   </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>category:Hardware</t>
+  </si>
+  <si>
+    <t>category:Software</t>
+  </si>
+  <si>
+    <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,14 +288,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,19 +314,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,18 +328,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{58EFB7F8-EED4-42F8-991D-FCCFE348FFFB}"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,7 +347,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1E7B7090-1235-42DC-B406-8E0748339947}" diskRevisions="1" revisionId="227" version="40">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3EABB458-A802-4D70-BEAB-900AA571CA3A}" diskRevisions="1" revisionId="347" version="41">
   <header guid="{2CA695B8-1765-4EAE-8594-F97529C19A3F}" dateTime="2018-09-26T10:51:26" maxSheetId="2" userName="Huenerlage, Lars" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -568,6 +548,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{3EABB458-A802-4D70-BEAB-900AA571CA3A}" dateTime="2018-09-26T13:37:06" maxSheetId="2" userName="Thiemann, Maik" r:id="rId41" minRId="228" maxRId="347">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8694,6 +8679,2509 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="228" sId="1">
+    <nc r="E2">
+      <f>CONCATENATE("category:",B2)</f>
+    </nc>
+  </rcc>
+  <rcc rId="229" sId="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Metadaten</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="230" sId="1" ref="E1:E1048576" action="insertCol"/>
+  <rcc rId="231" sId="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Source</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="1">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>Antwort</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Answer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="233" sId="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>Anfrage</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Question</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="234" sId="1">
+    <nc r="F3">
+      <f>CONCATENATE("category:",B3)</f>
+    </nc>
+  </rcc>
+  <rcc rId="235" sId="1">
+    <nc r="F4">
+      <f>CONCATENATE("category:",B4)</f>
+    </nc>
+  </rcc>
+  <rcc rId="236" sId="1">
+    <nc r="F5">
+      <f>CONCATENATE("category:",B5)</f>
+    </nc>
+  </rcc>
+  <rcc rId="237" sId="1">
+    <nc r="F6">
+      <f>CONCATENATE("category:",B6)</f>
+    </nc>
+  </rcc>
+  <rcc rId="238" sId="1">
+    <nc r="F7">
+      <f>CONCATENATE("category:",B7)</f>
+    </nc>
+  </rcc>
+  <rcc rId="239" sId="1">
+    <nc r="F8">
+      <f>CONCATENATE("category:",B8)</f>
+    </nc>
+  </rcc>
+  <rcc rId="240" sId="1">
+    <nc r="F9">
+      <f>CONCATENATE("category:",B9)</f>
+    </nc>
+  </rcc>
+  <rcc rId="241" sId="1">
+    <nc r="F10">
+      <f>CONCATENATE("category:",B10)</f>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="1">
+    <nc r="F11">
+      <f>CONCATENATE("category:",B11)</f>
+    </nc>
+  </rcc>
+  <rcc rId="243" sId="1" odxf="1" dxf="1">
+    <nc r="F12">
+      <f>CONCATENATE("category:",B12)</f>
+    </nc>
+    <odxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="244" sId="1">
+    <nc r="F13">
+      <f>CONCATENATE("category:",B13)</f>
+    </nc>
+  </rcc>
+  <rcc rId="245" sId="1">
+    <nc r="F14">
+      <f>CONCATENATE("category:",B14)</f>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="1">
+    <nc r="F15">
+      <f>CONCATENATE("category:",B15)</f>
+    </nc>
+  </rcc>
+  <rcc rId="247" sId="1">
+    <nc r="F16">
+      <f>CONCATENATE("category:",B16)</f>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="1">
+    <nc r="F17">
+      <f>CONCATENATE("category:",B17)</f>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="1">
+    <nc r="F18">
+      <f>CONCATENATE("category:",B18)</f>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="1">
+    <nc r="F19">
+      <f>CONCATENATE("category:",B19)</f>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="1">
+    <nc r="F20">
+      <f>CONCATENATE("category:",B20)</f>
+    </nc>
+  </rcc>
+  <rcc rId="252" sId="1">
+    <nc r="F21">
+      <f>CONCATENATE("category:",B21)</f>
+    </nc>
+  </rcc>
+  <rcc rId="253" sId="1">
+    <nc r="F22">
+      <f>CONCATENATE("category:",B22)</f>
+    </nc>
+  </rcc>
+  <rcc rId="254" sId="1">
+    <nc r="F23">
+      <f>CONCATENATE("category:",B23)</f>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="1">
+    <nc r="F24">
+      <f>CONCATENATE("category:",B24)</f>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="1">
+    <nc r="F25">
+      <f>CONCATENATE("category:",B25)</f>
+    </nc>
+  </rcc>
+  <rcc rId="257" sId="1">
+    <nc r="F26">
+      <f>CONCATENATE("category:",B26)</f>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="1">
+    <nc r="F27">
+      <f>CONCATENATE("category:",B27)</f>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="1">
+    <nc r="F28">
+      <f>CONCATENATE("category:",B28)</f>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="1">
+    <nc r="F29">
+      <f>CONCATENATE("category:",B29)</f>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="1">
+    <nc r="F30">
+      <f>CONCATENATE("category:",B30)</f>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="1">
+    <nc r="F31">
+      <f>CONCATENATE("category:",B31)</f>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="1">
+    <nc r="F32">
+      <f>CONCATENATE("category:",B32)</f>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="1">
+    <nc r="F33">
+      <f>CONCATENATE("category:",B33)</f>
+    </nc>
+  </rcc>
+  <rcc rId="265" sId="1">
+    <nc r="F34">
+      <f>CONCATENATE("category:",B34)</f>
+    </nc>
+  </rcc>
+  <rcc rId="266" sId="1">
+    <nc r="F35">
+      <f>CONCATENATE("category:",B35)</f>
+    </nc>
+  </rcc>
+  <rcc rId="267" sId="1">
+    <nc r="F36">
+      <f>CONCATENATE("category:",B36)</f>
+    </nc>
+  </rcc>
+  <rcc rId="268" sId="1">
+    <nc r="F37">
+      <f>CONCATENATE("category:",B37)</f>
+    </nc>
+  </rcc>
+  <rcc rId="269" sId="1">
+    <nc r="F38">
+      <f>CONCATENATE("category:",B38)</f>
+    </nc>
+  </rcc>
+  <rrc rId="270" sId="1" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="A1:A1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A2">
+        <v>1</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A3">
+        <v>2</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A4">
+        <v>3</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A5">
+        <v>4</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A6">
+        <v>5</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A7">
+        <v>6</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A8">
+        <v>7</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A9">
+        <v>8</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A10">
+        <v>9</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A11">
+        <v>10</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A12">
+        <v>11</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A13">
+        <v>12</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A14">
+        <v>13</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A15">
+        <v>14</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A16">
+        <v>15</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A17">
+        <v>16</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A18">
+        <v>17</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A19">
+        <v>18</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A20">
+        <v>19</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A21">
+        <v>20</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A22">
+        <v>21</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A23">
+        <v>22</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A24">
+        <v>23</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A25">
+        <v>24</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A26">
+        <v>25</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A27">
+        <v>26</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A28">
+        <v>27</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A29">
+        <v>28</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A30">
+        <v>29</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A31">
+        <v>30</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A32">
+        <v>31</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A33">
+        <v>32</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A34">
+        <v>33</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A35">
+        <v>34</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A36">
+        <v>35</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A37">
+        <v>36</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A38">
+        <v>37</v>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcc rId="271" sId="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="272" sId="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="273" sId="1">
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="274" sId="1">
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="275" sId="1">
+    <nc r="F6" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="276" sId="1">
+    <nc r="F7" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="277" sId="1">
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="278" sId="1">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="1">
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="280" sId="1">
+    <nc r="F11" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="281" sId="1">
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="282" sId="1">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="283" sId="1">
+    <nc r="F14" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="284" sId="1">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="285" sId="1">
+    <nc r="F16" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="286" sId="1">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="287" sId="1">
+    <nc r="F18" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="288" sId="1">
+    <nc r="F19" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="289" sId="1">
+    <nc r="F20" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="290" sId="1">
+    <nc r="F21" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="291" sId="1">
+    <nc r="F22" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="292" sId="1">
+    <nc r="F23" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="293" sId="1">
+    <nc r="F24" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="294" sId="1">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="295" sId="1">
+    <nc r="F26" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="296" sId="1">
+    <nc r="F27" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="297" sId="1">
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="298" sId="1">
+    <nc r="F29" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="299" sId="1">
+    <nc r="F30" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="300" sId="1">
+    <nc r="F31" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="301" sId="1">
+    <nc r="F32" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="302" sId="1">
+    <nc r="F33" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="303" sId="1">
+    <nc r="F34" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="304" sId="1">
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>category:Hardware</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="305" sId="1">
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="306" sId="1">
+    <nc r="F37" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="307" sId="1">
+    <nc r="F38" t="inlineStr">
+      <is>
+        <t>category:Software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="F1" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="308" sId="1" ref="E1:E1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="E1:E1048576" start="0" length="0"/>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="E1" t="inlineStr">
+        <is>
+          <t>Metadaten</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="center" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E2">
+        <f>CONCATENATE("category:",A2)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E3">
+        <f>CONCATENATE("category:",A3)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E4">
+        <f>CONCATENATE("category:",A4)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E5">
+        <f>CONCATENATE("category:",A5)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E6">
+        <f>CONCATENATE("category:",A6)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E7">
+        <f>CONCATENATE("category:",A7)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E8">
+        <f>CONCATENATE("category:",A8)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E9">
+        <f>CONCATENATE("category:",A9)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E10">
+        <f>CONCATENATE("category:",A10)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E11">
+        <f>CONCATENATE("category:",A11)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E12">
+        <f>CONCATENATE("category:",A12)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E13">
+        <f>CONCATENATE("category:",A13)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E14">
+        <f>CONCATENATE("category:",A14)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E15">
+        <f>CONCATENATE("category:",A15)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E16">
+        <f>CONCATENATE("category:",A16)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E17">
+        <f>CONCATENATE("category:",A17)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E18">
+        <f>CONCATENATE("category:",A18)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E19">
+        <f>CONCATENATE("category:",A19)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E20">
+        <f>CONCATENATE("category:",A20)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E21">
+        <f>CONCATENATE("category:",A21)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E22">
+        <f>CONCATENATE("category:",A22)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E23">
+        <f>CONCATENATE("category:",A23)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E24">
+        <f>CONCATENATE("category:",A24)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E25">
+        <f>CONCATENATE("category:",A25)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E26">
+        <f>CONCATENATE("category:",A26)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E27">
+        <f>CONCATENATE("category:",A27)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E28">
+        <f>CONCATENATE("category:",A28)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E29">
+        <f>CONCATENATE("category:",A29)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E30">
+        <f>CONCATENATE("category:",A30)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E31">
+        <f>CONCATENATE("category:",A31)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E32">
+        <f>CONCATENATE("category:",A32)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E33">
+        <f>CONCATENATE("category:",A33)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E34">
+        <f>CONCATENATE("category:",A34)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E35">
+        <f>CONCATENATE("category:",A35)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E36">
+        <f>CONCATENATE("category:",A36)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E37">
+        <f>CONCATENATE("category:",A37)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="E38">
+        <f>CONCATENATE("category:",A38)</f>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcc rId="309" sId="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="310" sId="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="311" sId="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="312" sId="1">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="313" sId="1">
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="314" sId="1">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="315" sId="1">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="316" sId="1">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="317" sId="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="318" sId="1">
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="319" sId="1" odxf="1">
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="320" sId="1" odxf="1">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="321" sId="1" odxf="1">
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="322" sId="1" odxf="1">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="323" sId="1" odxf="1">
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="324" sId="1" odxf="1">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="325" sId="1" odxf="1">
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="326" sId="1" odxf="1">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="327" sId="1" odxf="1">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="328" sId="1" odxf="1">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="329" sId="1" odxf="1">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="330" sId="1" odxf="1">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="331" sId="1" odxf="1">
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="332" sId="1" odxf="1">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="333" sId="1" odxf="1">
+    <nc r="D26" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="334" sId="1" odxf="1">
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="335" sId="1" odxf="1">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="336" sId="1" odxf="1">
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="337" sId="1" odxf="1">
+    <nc r="D30" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="338" sId="1" odxf="1">
+    <nc r="D31" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="339" sId="1" odxf="1">
+    <nc r="D32" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="340" sId="1" odxf="1">
+    <nc r="D33" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="341" sId="1" odxf="1">
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="342" sId="1" odxf="1">
+    <nc r="D35" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="343" sId="1" odxf="1">
+    <nc r="D36" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="344" sId="1" odxf="1">
+    <nc r="D37" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="345" sId="1" odxf="1">
+    <nc r="D38" t="inlineStr">
+      <is>
+        <t>PFG_Fashionstore_IT_Problems_FAQ_DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rrc rId="346" sId="1" ref="A1:A1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="A1:A1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="center" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A1" t="inlineStr">
+        <is>
+          <t>Kategorie</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A2" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A3" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A4" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A5" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A6" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A7" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A8" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A9" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A10" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A11" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A12" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A13" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A14" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A15" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A16" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A17" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A18" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A19" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A20" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A21" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A22" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A23" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A24" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A25" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A26" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A27" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A28" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A29" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A30" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A31" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A32" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A33" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A34" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A35" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A36" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A37" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="1" s="1" dxf="1">
+      <nc r="A38" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment vertical="top" readingOrder="0"/>
+      </ndxf>
+    </rcc>
+  </rrc>
+  <rcc rId="347" sId="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Metadata</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D497DE23-6865-46C0-90E9-38E50D4A0C6E}" action="add"/>
 </revisions>
 </file>
 
@@ -9090,596 +11578,557 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBE0E82-4136-409F-9520-3A08329B9390}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="25.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="5"/>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ACA718C0-8D78-4A51-9B60-C7FB5EB05292}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{D497DE23-6865-46C0-90E9-38E50D4A0C6E}">
+      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -9688,8 +12137,13 @@
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
+    <customSheetView guid="{ACA718C0-8D78-4A51-9B60-C7FB5EB05292}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>